--- a/JieLongMod_6/Excel/Z阵营势力表_Camps.xlsx
+++ b/JieLongMod_6/Excel/Z阵营势力表_Camps.xlsx
@@ -363,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -379,6 +379,12 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -870,148 +876,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1027,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1077,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,11 +1482,11 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="2"/>
@@ -1625,11 +1634,11 @@
       <c r="O2" s="11">
         <v>10</v>
       </c>
-      <c r="P2" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>10</v>
+      <c r="P2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>0</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11">
@@ -1638,7 +1647,7 @@
       <c r="T2" s="11">
         <v>0</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="16">
         <v>0</v>
       </c>
       <c r="V2" s="14" t="s">
